--- a/xlsx/country_comparison/main_radical_redistr_dem_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_dem_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">Tertiary diploma</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural urbanicity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cities urbanicity</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports Int'l Climate Scheme (any variant)</t>
+    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
   </si>
   <si>
     <t xml:space="preserve">Supports int'l tax on millionaires
@@ -474,13 +471,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.678255122017956</v>
@@ -507,27 +501,24 @@
         <v>0.692950437197176</v>
       </c>
       <c r="J2" t="n">
-        <v>0.589677221014213</v>
+        <v>0.675961169790647</v>
       </c>
       <c r="K2" t="n">
-        <v>0.675961169790647</v>
+        <v>0.758839091960792</v>
       </c>
       <c r="L2" t="n">
-        <v>0.758839091960792</v>
+        <v>0.689284133439181</v>
       </c>
       <c r="M2" t="n">
-        <v>0.689284133439181</v>
+        <v>0.628163486754567</v>
       </c>
       <c r="N2" t="n">
-        <v>0.628163486754567</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.651618444020054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.553746767090015</v>
@@ -554,27 +545,24 @@
         <v>0.571799761829205</v>
       </c>
       <c r="J3" t="n">
-        <v>0.492390118211908</v>
+        <v>0.56095142606665</v>
       </c>
       <c r="K3" t="n">
-        <v>0.56095142606665</v>
+        <v>0.668488313591542</v>
       </c>
       <c r="L3" t="n">
-        <v>0.668488313591542</v>
+        <v>0.549284431939772</v>
       </c>
       <c r="M3" t="n">
-        <v>0.549284431939772</v>
+        <v>0.494644177361136</v>
       </c>
       <c r="N3" t="n">
-        <v>0.494644177361136</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.559440651653441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.655683473250087</v>
@@ -601,27 +589,24 @@
         <v>0.678024646845115</v>
       </c>
       <c r="J4" t="n">
-        <v>0.605973228282178</v>
+        <v>0.666724384246567</v>
       </c>
       <c r="K4" t="n">
-        <v>0.666724384246567</v>
+        <v>0.739100945612451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.739100945612451</v>
+        <v>0.640550576837452</v>
       </c>
       <c r="M4" t="n">
-        <v>0.640550576837452</v>
+        <v>0.618976593771369</v>
       </c>
       <c r="N4" t="n">
-        <v>0.618976593771369</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.658282318902356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704079856692946</v>
@@ -648,27 +633,24 @@
         <v>0.684695552414295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.682407467148231</v>
+        <v>0.68987618805923</v>
       </c>
       <c r="K5" t="n">
-        <v>0.68987618805923</v>
+        <v>0.765243073370765</v>
       </c>
       <c r="L5" t="n">
-        <v>0.765243073370765</v>
+        <v>0.703804690591299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.703804690591299</v>
+        <v>0.67146735409308</v>
       </c>
       <c r="N5" t="n">
-        <v>0.67146735409308</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.689669963895923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.556565037682828</v>
@@ -695,27 +677,24 @@
         <v>0.557770805097998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.550576126040918</v>
+        <v>0.529333894886798</v>
       </c>
       <c r="K6" t="n">
-        <v>0.529333894886798</v>
+        <v>0.606800574876513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.606800574876513</v>
+        <v>0.545966258062418</v>
       </c>
       <c r="M6" t="n">
-        <v>0.545966258062418</v>
+        <v>0.536857988250457</v>
       </c>
       <c r="N6" t="n">
-        <v>0.536857988250457</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.551686673848649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.503247309719211</v>
@@ -742,27 +721,24 @@
         <v>0.487808671225733</v>
       </c>
       <c r="J7" t="n">
-        <v>0.515869819633583</v>
+        <v>0.467463209038224</v>
       </c>
       <c r="K7" t="n">
-        <v>0.467463209038224</v>
+        <v>0.556491945124757</v>
       </c>
       <c r="L7" t="n">
-        <v>0.556491945124757</v>
+        <v>0.495362580524407</v>
       </c>
       <c r="M7" t="n">
-        <v>0.495362580524407</v>
+        <v>0.477006872361803</v>
       </c>
       <c r="N7" t="n">
-        <v>0.477006872361803</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.487488844113759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.680815013747804</v>
@@ -789,27 +765,24 @@
         <v>0.698035407271894</v>
       </c>
       <c r="J8" t="n">
-        <v>0.625751850586694</v>
+        <v>0.68060505303262</v>
       </c>
       <c r="K8" t="n">
-        <v>0.68060505303262</v>
+        <v>0.705805064704571</v>
       </c>
       <c r="L8" t="n">
-        <v>0.705805064704571</v>
+        <v>0.674494355468552</v>
       </c>
       <c r="M8" t="n">
-        <v>0.674494355468552</v>
+        <v>0.670759601185459</v>
       </c>
       <c r="N8" t="n">
-        <v>0.670759601185459</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.653274937734425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.704960018034767</v>
@@ -836,27 +809,24 @@
         <v>0.669098811683664</v>
       </c>
       <c r="J9" t="n">
-        <v>0.673163841818067</v>
+        <v>0.662588482404981</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662588482404981</v>
+        <v>0.756241962685111</v>
       </c>
       <c r="L9" t="n">
-        <v>0.756241962685111</v>
+        <v>0.705538252739666</v>
       </c>
       <c r="M9" t="n">
-        <v>0.705538252739666</v>
+        <v>0.676488889722822</v>
       </c>
       <c r="N9" t="n">
-        <v>0.676488889722822</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.677155588440181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.675595447215337</v>
@@ -883,27 +853,24 @@
         <v>0.678716565717274</v>
       </c>
       <c r="J10" t="n">
-        <v>0.659855296116112</v>
+        <v>0.670986680941442</v>
       </c>
       <c r="K10" t="n">
-        <v>0.670986680941442</v>
+        <v>0.776798227194393</v>
       </c>
       <c r="L10" t="n">
-        <v>0.776798227194393</v>
+        <v>0.679547321534742</v>
       </c>
       <c r="M10" t="n">
-        <v>0.679547321534742</v>
+        <v>0.619592562860024</v>
       </c>
       <c r="N10" t="n">
-        <v>0.619592562860024</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.669386523303174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.364717906507653</v>
@@ -930,27 +897,24 @@
         <v>0.397715466735077</v>
       </c>
       <c r="J11" t="n">
-        <v>0.360571740748931</v>
+        <v>0.364605962814923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.364605962814923</v>
+        <v>0.458769508450192</v>
       </c>
       <c r="L11" t="n">
-        <v>0.458769508450192</v>
+        <v>0.350622678913561</v>
       </c>
       <c r="M11" t="n">
-        <v>0.350622678913561</v>
+        <v>0.324027190786032</v>
       </c>
       <c r="N11" t="n">
-        <v>0.324027190786032</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.378161622683157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0.347853243460036</v>
@@ -977,27 +941,24 @@
         <v>0.3746819161475</v>
       </c>
       <c r="J12" t="n">
-        <v>0.294879086186501</v>
+        <v>0.361737031188284</v>
       </c>
       <c r="K12" t="n">
-        <v>0.361737031188284</v>
+        <v>0.413094046971847</v>
       </c>
       <c r="L12" t="n">
-        <v>0.413094046971847</v>
+        <v>0.343231942951947</v>
       </c>
       <c r="M12" t="n">
-        <v>0.343231942951947</v>
+        <v>0.314718940887308</v>
       </c>
       <c r="N12" t="n">
-        <v>0.314718940887308</v>
-      </c>
-      <c r="O12" t="n">
         <v>0.357394352437069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>0.410629863862209</v>
@@ -1024,21 +985,18 @@
         <v>0.447917438246015</v>
       </c>
       <c r="J13" t="n">
-        <v>0.378771650290466</v>
+        <v>0.416221127296515</v>
       </c>
       <c r="K13" t="n">
-        <v>0.416221127296515</v>
+        <v>0.544082511891155</v>
       </c>
       <c r="L13" t="n">
-        <v>0.544082511891155</v>
+        <v>0.415344385705904</v>
       </c>
       <c r="M13" t="n">
-        <v>0.415344385705904</v>
+        <v>0.336673359033882</v>
       </c>
       <c r="N13" t="n">
-        <v>0.336673359033882</v>
-      </c>
-      <c r="O13" t="n">
         <v>0.418832105831997</v>
       </c>
     </row>
